--- a/data/input/static/base_agedef.xlsx
+++ b/data/input/static/base_agedef.xlsx
@@ -8962,7 +8962,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61BE2E48-995F-4BD1-84BE-83D555BDDB8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E95F57-CAA5-41C3-B42B-48609FF5AB12}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
